--- a/public/Sample_Users_List.xlsx
+++ b/public/Sample_Users_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Office Pendrive\Dsys2472019\Projects\myapps_sso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86D12B-F864-41D4-AB92-FC5B6E56D20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D3C5B8-5AAC-405E-8BE6-1905986F1210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7DB97267-CBE3-4E4C-8C7C-AB51FF6B15A8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employee_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admission_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">section </t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -101,12 +113,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,20 +442,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAC03C5-4A32-406E-A780-DB8542B8594A}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -453,68 +467,171 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
